--- a/mcmaster_excel/Metric_18-8_Stainless_Steel_Extra-Wide_Truss_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Metric_18-8_Stainless_Steel_Extra-Wide_Truss_Head_Phillips_Screws.xlsx
@@ -434,72 +434,82 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
@@ -518,7 +528,11 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,7 +581,11 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -616,7 +634,11 @@
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -665,7 +687,11 @@
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -714,7 +740,11 @@
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -763,7 +793,11 @@
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -812,7 +846,11 @@
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -861,7 +899,11 @@
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -910,7 +952,11 @@
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -959,7 +1005,11 @@
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1008,7 +1058,11 @@
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1057,7 +1111,11 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1106,7 +1164,11 @@
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1123,7 +1185,11 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1172,7 +1238,11 @@
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1221,7 +1291,11 @@
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1270,7 +1344,11 @@
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1319,7 +1397,11 @@
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1368,7 +1450,11 @@
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1417,7 +1503,11 @@
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1466,7 +1556,11 @@
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1515,7 +1609,11 @@
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1564,7 +1662,11 @@
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1613,7 +1715,11 @@
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1662,7 +1768,11 @@
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1711,7 +1821,11 @@
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1728,7 +1842,11 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1777,7 +1895,11 @@
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1826,7 +1948,11 @@
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1875,7 +2001,11 @@
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1924,7 +2054,11 @@
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1973,7 +2107,11 @@
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2022,7 +2160,11 @@
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2071,7 +2213,11 @@
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2120,7 +2266,11 @@
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2169,7 +2319,11 @@
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2218,7 +2372,11 @@
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2267,7 +2425,11 @@
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2316,7 +2478,11 @@
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2365,7 +2531,11 @@
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2414,7 +2584,11 @@
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2463,7 +2637,11 @@
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2512,7 +2690,11 @@
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2561,7 +2743,11 @@
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2610,7 +2796,11 @@
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2627,7 +2817,11 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2676,7 +2870,11 @@
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2725,7 +2923,11 @@
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2774,7 +2976,11 @@
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2823,7 +3029,11 @@
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2872,7 +3082,11 @@
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2921,7 +3135,11 @@
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2970,7 +3188,11 @@
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3019,7 +3241,11 @@
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3036,7 +3262,11 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3085,7 +3315,11 @@
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3134,7 +3368,11 @@
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3183,7 +3421,11 @@
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3232,7 +3474,11 @@
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3281,7 +3527,11 @@
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3330,7 +3580,11 @@
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3379,7 +3633,11 @@
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3428,7 +3686,11 @@
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3477,7 +3739,11 @@
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3526,7 +3792,11 @@
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3575,7 +3845,11 @@
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3624,7 +3898,11 @@
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3673,7 +3951,11 @@
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3722,7 +4004,11 @@
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3771,7 +4057,11 @@
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3820,7 +4110,11 @@
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3869,7 +4163,11 @@
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3918,7 +4216,11 @@
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3967,7 +4269,11 @@
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4016,7 +4322,11 @@
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4033,7 +4343,11 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4082,7 +4396,11 @@
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4131,7 +4449,11 @@
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4180,7 +4502,11 @@
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4229,7 +4555,11 @@
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4278,7 +4608,11 @@
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4327,7 +4661,11 @@
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4376,7 +4714,11 @@
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4425,7 +4767,11 @@
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4474,7 +4820,11 @@
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4523,7 +4873,11 @@
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4572,7 +4926,11 @@
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4621,7 +4979,11 @@
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4670,7 +5032,11 @@
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4719,7 +5085,11 @@
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4768,7 +5138,11 @@
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4817,7 +5191,11 @@
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4866,7 +5244,11 @@
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4883,7 +5265,11 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4932,7 +5318,11 @@
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4981,7 +5371,11 @@
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5030,7 +5424,11 @@
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5079,7 +5477,11 @@
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5128,7 +5530,11 @@
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5177,7 +5583,11 @@
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5226,7 +5636,11 @@
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5275,7 +5689,11 @@
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5324,7 +5742,11 @@
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5373,7 +5795,11 @@
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5422,7 +5848,11 @@
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5471,7 +5901,11 @@
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5520,7 +5954,11 @@
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5569,7 +6007,11 @@
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5618,7 +6060,11 @@
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5635,7 +6081,11 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5684,7 +6134,11 @@
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5733,7 +6187,11 @@
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5782,7 +6240,11 @@
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5831,7 +6293,11 @@
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5880,7 +6346,11 @@
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5929,7 +6399,11 @@
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5978,7 +6452,11 @@
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6027,7 +6505,11 @@
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6076,7 +6558,11 @@
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6125,7 +6611,11 @@
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
